--- a/notebooks/samples/m_a_2025.xlsx
+++ b/notebooks/samples/m_a_2025.xlsx
@@ -546,8 +546,16 @@
           <t>2025-01-06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>M</t>
@@ -560,8 +568,16 @@
           <t>2025-01-07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>M</t>
@@ -574,13 +590,17 @@
           <t>2025-01-08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -662,15 +682,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -678,8 +702,16 @@
           <t>2025-01-14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>M</t>
@@ -692,13 +724,17 @@
           <t>2025-01-15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -706,13 +742,17 @@
           <t>2025-01-16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -776,15 +816,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -794,15 +838,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -810,13 +858,17 @@
           <t>2025-01-22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -824,13 +876,17 @@
           <t>2025-01-23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -838,13 +894,17 @@
           <t>2025-01-24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -890,15 +950,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -908,15 +972,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -942,13 +1010,17 @@
           <t>2025-01-30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -956,13 +1028,17 @@
           <t>2025-01-31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -970,13 +1046,17 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1004,15 +1084,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1022,15 +1106,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1074,13 +1162,17 @@
           <t>2025-02-07</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1088,13 +1180,17 @@
           <t>2025-02-08</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1102,13 +1198,17 @@
           <t>2025-02-09</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1118,15 +1218,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1136,15 +1240,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1206,13 +1314,17 @@
           <t>2025-02-15</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1220,13 +1332,17 @@
           <t>2025-02-16</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1234,8 +1350,16 @@
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>M</t>
@@ -1250,15 +1374,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1338,13 +1466,17 @@
           <t>2025-02-23</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1352,8 +1484,16 @@
           <t>2025-02-24</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>M</t>
@@ -1366,8 +1506,16 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>M</t>
@@ -1470,8 +1618,16 @@
           <t>2025-03-03</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>M</t>
@@ -1484,8 +1640,16 @@
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>M</t>
@@ -1498,13 +1662,17 @@
           <t>2025-03-05</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1586,15 +1754,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1602,8 +1774,16 @@
           <t>2025-03-11</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>M</t>
@@ -1616,13 +1796,17 @@
           <t>2025-03-12</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1630,13 +1814,17 @@
           <t>2025-03-13</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1700,15 +1888,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1718,15 +1910,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1734,13 +1930,17 @@
           <t>2025-03-19</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1748,13 +1948,17 @@
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1762,13 +1966,17 @@
           <t>2025-03-21</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1814,15 +2022,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1832,15 +2044,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1866,13 +2082,17 @@
           <t>2025-03-27</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -1880,13 +2100,17 @@
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -1894,13 +2118,17 @@
           <t>2025-03-29</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -1928,15 +2156,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -1946,15 +2178,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -1998,13 +2234,17 @@
           <t>2025-04-04</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2012,13 +2252,17 @@
           <t>2025-04-05</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2026,13 +2270,17 @@
           <t>2025-04-06</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2042,15 +2290,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2060,15 +2312,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2130,13 +2386,17 @@
           <t>2025-04-12</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2144,13 +2404,17 @@
           <t>2025-04-13</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2158,8 +2422,16 @@
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>M</t>
@@ -2174,15 +2446,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2262,13 +2538,17 @@
           <t>2025-04-20</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2276,8 +2556,16 @@
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>M</t>
@@ -2290,8 +2578,16 @@
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>M</t>
@@ -2394,8 +2690,16 @@
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>M</t>
@@ -2408,8 +2712,16 @@
           <t>2025-04-29</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>M</t>
@@ -2422,13 +2734,17 @@
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2510,15 +2826,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2526,8 +2846,16 @@
           <t>2025-05-06</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>M</t>
@@ -2540,13 +2868,17 @@
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2554,13 +2886,17 @@
           <t>2025-05-08</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2624,15 +2960,19 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2642,15 +2982,19 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2658,13 +3002,17 @@
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2672,13 +3020,17 @@
           <t>2025-05-15</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2686,13 +3038,17 @@
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2738,15 +3094,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2756,15 +3116,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2790,13 +3154,17 @@
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -2804,13 +3172,17 @@
           <t>2025-05-23</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -2818,13 +3190,17 @@
           <t>2025-05-24</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -2852,15 +3228,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -2870,15 +3250,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -2922,13 +3306,17 @@
           <t>2025-05-30</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -2936,13 +3324,17 @@
           <t>2025-05-31</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -2950,13 +3342,17 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -2966,15 +3362,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -2984,15 +3384,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3054,13 +3458,17 @@
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3068,13 +3476,17 @@
           <t>2025-06-08</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3082,8 +3494,16 @@
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>M</t>
@@ -3098,15 +3518,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3186,13 +3610,17 @@
           <t>2025-06-15</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3200,8 +3628,16 @@
           <t>2025-06-16</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>M</t>
@@ -3214,8 +3650,16 @@
           <t>2025-06-17</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>M</t>
@@ -3318,8 +3762,16 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>M</t>
@@ -3332,8 +3784,16 @@
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>M</t>
@@ -3346,13 +3806,17 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3434,15 +3898,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3450,8 +3918,16 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>M</t>
@@ -3464,13 +3940,17 @@
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3478,13 +3958,17 @@
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3548,15 +4032,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3566,15 +4054,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3582,13 +4074,17 @@
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3596,13 +4092,17 @@
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3610,13 +4110,17 @@
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3662,15 +4166,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3680,15 +4188,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -3714,13 +4226,17 @@
           <t>2025-07-17</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -3728,13 +4244,17 @@
           <t>2025-07-18</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -3742,13 +4262,17 @@
           <t>2025-07-19</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -3776,15 +4300,19 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -3794,15 +4322,19 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -3846,13 +4378,17 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -3860,13 +4396,17 @@
           <t>2025-07-26</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -3874,13 +4414,17 @@
           <t>2025-07-27</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -3890,15 +4434,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -3908,15 +4456,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -3978,13 +4530,17 @@
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -3992,13 +4548,17 @@
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -4006,8 +4566,16 @@
           <t>2025-08-04</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>M</t>
@@ -4022,15 +4590,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -4110,13 +4682,17 @@
           <t>2025-08-10</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4124,8 +4700,16 @@
           <t>2025-08-11</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>M</t>
@@ -4138,8 +4722,16 @@
           <t>2025-08-12</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>M</t>
@@ -4242,8 +4834,16 @@
           <t>2025-08-18</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>M</t>
@@ -4256,8 +4856,16 @@
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>M</t>
@@ -4270,13 +4878,17 @@
           <t>2025-08-20</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4358,15 +4970,19 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -4374,8 +4990,16 @@
           <t>2025-08-26</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>M</t>
@@ -4388,13 +5012,17 @@
           <t>2025-08-27</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -4402,13 +5030,17 @@
           <t>2025-08-28</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -4472,15 +5104,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -4490,15 +5126,19 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -4506,13 +5146,17 @@
           <t>2025-09-03</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -4520,13 +5164,17 @@
           <t>2025-09-04</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -4534,13 +5182,17 @@
           <t>2025-09-05</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -4586,15 +5238,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -4604,15 +5260,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -4638,13 +5298,17 @@
           <t>2025-09-11</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -4652,13 +5316,17 @@
           <t>2025-09-12</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -4666,13 +5334,17 @@
           <t>2025-09-13</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -4700,15 +5372,19 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -4718,15 +5394,19 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -4770,13 +5450,17 @@
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -4784,13 +5468,17 @@
           <t>2025-09-20</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -4798,13 +5486,17 @@
           <t>2025-09-21</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -4814,15 +5506,19 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -4832,15 +5528,19 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -4902,13 +5602,17 @@
           <t>2025-09-27</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -4916,13 +5620,17 @@
           <t>2025-09-28</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -4930,8 +5638,16 @@
           <t>2025-09-29</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>M</t>
@@ -4946,15 +5662,19 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -5034,13 +5754,17 @@
           <t>2025-10-05</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -5048,8 +5772,16 @@
           <t>2025-10-06</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>M</t>
@@ -5062,8 +5794,16 @@
           <t>2025-10-07</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>M</t>
@@ -5166,8 +5906,16 @@
           <t>2025-10-13</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr"/>
-      <c r="C287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>M</t>
@@ -5180,8 +5928,16 @@
           <t>2025-10-14</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D288" t="inlineStr">
         <is>
           <t>M</t>
@@ -5194,13 +5950,17 @@
           <t>2025-10-15</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5282,15 +6042,19 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -5298,8 +6062,16 @@
           <t>2025-10-21</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr"/>
-      <c r="C295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>M</t>
@@ -5312,13 +6084,17 @@
           <t>2025-10-22</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr"/>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -5326,13 +6102,17 @@
           <t>2025-10-23</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr"/>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -5396,15 +6176,19 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -5414,15 +6198,19 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -5430,13 +6218,17 @@
           <t>2025-10-29</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -5444,13 +6236,17 @@
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr"/>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -5458,13 +6254,17 @@
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -5510,15 +6310,19 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -5528,15 +6332,19 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -5562,13 +6370,17 @@
           <t>2025-11-06</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -5576,13 +6388,17 @@
           <t>2025-11-07</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -5590,13 +6406,17 @@
           <t>2025-11-08</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr"/>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -5624,15 +6444,19 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -5642,15 +6466,19 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -5694,13 +6522,17 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -5708,13 +6540,17 @@
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -5722,13 +6558,17 @@
           <t>2025-11-16</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr"/>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -5738,15 +6578,19 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -5756,15 +6600,19 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -5826,13 +6674,17 @@
           <t>2025-11-22</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -5840,13 +6692,17 @@
           <t>2025-11-23</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -5854,8 +6710,16 @@
           <t>2025-11-24</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>M</t>
@@ -5870,15 +6734,19 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -5958,13 +6826,17 @@
           <t>2025-11-30</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -5972,8 +6844,16 @@
           <t>2025-12-01</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr"/>
-      <c r="C336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>M</t>
@@ -5986,8 +6866,16 @@
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr"/>
-      <c r="C337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>M</t>
@@ -6090,8 +6978,16 @@
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr"/>
-      <c r="C343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>M</t>
@@ -6104,8 +7000,16 @@
           <t>2025-12-09</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr"/>
-      <c r="C344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>M</t>
@@ -6118,13 +7022,17 @@
           <t>2025-12-10</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr"/>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -6206,15 +7114,19 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -6222,8 +7134,16 @@
           <t>2025-12-16</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr"/>
-      <c r="C351" t="inlineStr"/>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D351" t="inlineStr">
         <is>
           <t>M</t>
@@ -6236,13 +7156,17 @@
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -6250,13 +7174,17 @@
           <t>2025-12-18</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -6320,15 +7248,19 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -6338,15 +7270,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -6354,13 +7290,17 @@
           <t>2025-12-24</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr"/>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -6368,13 +7308,17 @@
           <t>2025-12-25</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr"/>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -6382,13 +7326,17 @@
           <t>2025-12-26</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -6434,15 +7382,19 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -6452,15 +7404,19 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">

--- a/notebooks/samples/m_a_2025.xlsx
+++ b/notebooks/samples/m_a_2025.xlsx
@@ -466,7 +466,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -484,7 +488,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -502,7 +510,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -520,7 +532,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -538,7 +554,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -592,15 +612,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -610,15 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -636,7 +664,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -654,7 +686,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -664,15 +700,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -687,12 +727,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -709,12 +749,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -726,15 +766,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -749,10 +793,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -762,15 +810,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -780,15 +832,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -798,15 +854,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -821,12 +881,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -843,12 +903,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -860,15 +920,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -883,10 +947,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,15 +964,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -914,15 +986,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -932,15 +1008,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -955,12 +1035,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -972,17 +1052,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -994,15 +1074,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1012,15 +1096,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1030,15 +1118,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1048,15 +1140,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1066,15 +1162,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1084,17 +1184,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1106,17 +1206,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1128,15 +1228,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1151,10 +1255,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1164,15 +1272,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1182,15 +1294,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1205,10 +1321,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1218,17 +1338,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1240,17 +1360,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1262,15 +1382,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1285,10 +1409,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1298,15 +1426,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1316,15 +1448,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1339,10 +1475,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1352,17 +1492,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1374,17 +1514,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1396,15 +1536,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1419,10 +1563,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1432,15 +1580,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1450,15 +1602,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1473,10 +1629,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1486,17 +1646,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1508,17 +1668,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1530,15 +1690,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1553,10 +1717,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1566,15 +1734,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1584,15 +1756,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1607,10 +1783,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1620,17 +1800,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1822,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1664,15 +1844,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1687,10 +1871,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1700,15 +1888,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1718,15 +1910,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1741,10 +1937,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1754,17 +1954,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1976,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1798,15 +1998,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1821,10 +2025,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1834,15 +2042,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1852,15 +2064,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1875,10 +2091,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1888,17 +2108,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1910,17 +2130,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1932,15 +2152,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1955,10 +2179,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1968,15 +2196,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1986,15 +2218,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2009,10 +2245,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2022,17 +2262,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2044,17 +2284,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2066,15 +2306,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2089,10 +2333,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2102,15 +2350,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2120,15 +2372,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2143,10 +2399,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2156,17 +2416,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2178,17 +2438,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2200,15 +2460,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2223,10 +2487,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2236,15 +2504,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2254,15 +2526,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2277,10 +2553,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2290,17 +2570,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2312,17 +2592,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2334,15 +2614,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2357,10 +2641,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2370,15 +2658,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2388,15 +2680,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2411,10 +2707,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2424,17 +2724,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2446,17 +2746,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2468,15 +2768,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2491,10 +2795,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2504,15 +2812,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2522,15 +2834,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2545,10 +2861,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2558,17 +2878,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2580,17 +2900,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2602,15 +2922,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2625,10 +2949,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2638,15 +2966,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2656,15 +2988,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2679,10 +3015,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2692,17 +3032,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2714,17 +3054,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2736,15 +3076,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2759,10 +3103,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2772,15 +3120,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2790,15 +3142,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2813,10 +3169,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2826,17 +3186,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2848,17 +3208,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2870,15 +3230,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2893,10 +3257,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2906,15 +3274,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2924,15 +3296,19 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2947,10 +3323,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2960,17 +3340,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2982,17 +3362,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3004,15 +3384,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3027,10 +3411,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3040,15 +3428,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3058,15 +3450,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3081,10 +3477,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3094,17 +3494,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3516,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3138,15 +3538,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3161,10 +3565,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3174,15 +3582,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3192,15 +3604,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3215,10 +3631,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3228,17 +3648,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3250,17 +3670,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3272,15 +3692,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3295,10 +3719,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3308,15 +3736,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3326,15 +3758,19 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3349,10 +3785,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3362,17 +3802,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3384,17 +3824,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3406,15 +3846,19 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3429,10 +3873,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3442,15 +3890,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3460,15 +3912,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3483,10 +3939,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3496,17 +3956,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3518,17 +3978,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3540,15 +4000,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3563,10 +4027,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3576,15 +4044,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3594,15 +4066,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3617,10 +4093,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3630,17 +4110,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3652,17 +4132,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3674,15 +4154,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3697,10 +4181,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3710,15 +4198,19 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3728,15 +4220,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3751,10 +4247,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3764,17 +4264,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3786,17 +4286,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3808,15 +4308,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3831,10 +4335,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3844,15 +4352,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3862,15 +4374,19 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3885,10 +4401,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3898,17 +4418,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3920,17 +4440,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3942,15 +4462,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3965,10 +4489,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3978,15 +4506,19 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3996,15 +4528,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -4019,10 +4555,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -4032,17 +4572,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4054,17 +4594,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4076,15 +4616,19 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -4099,10 +4643,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -4112,15 +4660,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -4130,15 +4682,19 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -4153,10 +4709,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -4166,17 +4726,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4188,17 +4748,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4210,15 +4770,19 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -4233,10 +4797,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -4246,15 +4814,19 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -4264,15 +4836,19 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -4287,10 +4863,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -4300,17 +4880,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4322,17 +4902,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4344,15 +4924,19 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -4367,10 +4951,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -4380,15 +4968,19 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -4398,15 +4990,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -4421,10 +5017,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -4434,17 +5034,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4456,17 +5056,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4478,15 +5078,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -4501,10 +5105,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -4514,15 +5122,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -4532,15 +5144,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -4555,10 +5171,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -4568,17 +5188,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4590,17 +5210,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4612,15 +5232,19 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -4635,10 +5259,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -4648,15 +5276,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -4666,15 +5298,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -4689,10 +5325,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4702,17 +5342,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4724,17 +5364,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4746,15 +5386,19 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -4769,10 +5413,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -4782,15 +5430,19 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -4800,15 +5452,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -4823,10 +5479,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -4836,17 +5496,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4858,17 +5518,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4880,15 +5540,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4903,10 +5567,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -4916,15 +5584,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -4934,15 +5606,19 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -4957,10 +5633,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -4970,17 +5650,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4992,17 +5672,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5014,15 +5694,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -5037,10 +5721,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -5050,15 +5738,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -5068,15 +5760,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -5091,10 +5787,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -5104,17 +5804,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5126,17 +5826,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5148,15 +5848,19 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -5171,10 +5875,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -5184,15 +5892,19 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -5202,15 +5914,19 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -5225,10 +5941,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -5238,17 +5958,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5260,17 +5980,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5282,15 +6002,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -5305,10 +6029,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -5318,15 +6046,19 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -5336,15 +6068,19 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -5359,10 +6095,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -5372,17 +6112,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5394,17 +6134,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5416,15 +6156,19 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -5439,10 +6183,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -5452,15 +6200,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -5470,15 +6222,19 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -5493,10 +6249,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -5506,17 +6266,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5528,17 +6288,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5550,15 +6310,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -5573,10 +6337,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -5586,15 +6354,19 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -5604,15 +6376,19 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -5627,10 +6403,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -5640,17 +6420,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5662,17 +6442,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5684,15 +6464,19 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -5707,10 +6491,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -5720,15 +6508,19 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -5738,15 +6530,19 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -5761,10 +6557,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -5774,17 +6574,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5796,17 +6596,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5818,15 +6618,19 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -5841,10 +6645,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -5854,15 +6662,19 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -5872,15 +6684,19 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -5895,10 +6711,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -5908,17 +6728,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5930,17 +6750,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5952,15 +6772,19 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5975,10 +6799,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -5988,15 +6816,19 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -6006,15 +6838,19 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -6029,10 +6865,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -6042,17 +6882,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6064,17 +6904,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6086,15 +6926,19 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -6109,10 +6953,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -6122,15 +6970,19 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -6140,15 +6992,19 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -6163,10 +7019,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -6176,17 +7036,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6198,17 +7058,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6220,15 +7080,19 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -6243,10 +7107,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -6256,15 +7124,19 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -6274,15 +7146,19 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -6297,10 +7173,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -6310,17 +7190,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6332,17 +7212,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6354,15 +7234,19 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -6377,10 +7261,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -6390,15 +7278,19 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -6408,15 +7300,19 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -6431,10 +7327,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -6444,17 +7344,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6466,17 +7366,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6488,15 +7388,19 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -6511,10 +7415,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -6524,15 +7432,19 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -6542,15 +7454,19 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -6565,10 +7481,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -6578,17 +7498,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6600,17 +7520,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6622,15 +7542,19 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -6645,10 +7569,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -6658,15 +7586,19 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -6676,15 +7608,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -6699,10 +7635,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -6712,17 +7652,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6734,17 +7674,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6756,15 +7696,19 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -6779,10 +7723,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -6792,15 +7740,19 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -6810,15 +7762,19 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -6833,10 +7789,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -6846,17 +7806,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6868,17 +7828,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6890,15 +7850,19 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -6913,10 +7877,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -6926,15 +7894,19 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -6944,15 +7916,19 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -6967,10 +7943,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -6980,17 +7960,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7002,17 +7982,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7024,15 +8004,19 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -7047,10 +8031,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -7060,15 +8048,19 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -7078,15 +8070,19 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -7101,10 +8097,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -7114,17 +8114,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7136,17 +8136,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7158,15 +8158,19 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -7181,10 +8185,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -7194,15 +8202,19 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -7212,15 +8224,19 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -7235,10 +8251,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -7248,17 +8268,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7270,17 +8290,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7292,15 +8312,19 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -7315,10 +8339,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -7328,15 +8356,19 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -7346,15 +8378,19 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -7369,10 +8405,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -7382,17 +8422,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7404,17 +8444,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7426,15 +8466,19 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/samples/m_a_2025.xlsx
+++ b/notebooks/samples/m_a_2025.xlsx
@@ -705,12 +705,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -810,12 +810,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,17 +832,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1052,17 +1052,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1140,17 +1140,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1206,17 +1206,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1272,17 +1272,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1294,17 +1294,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1338,17 +1338,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1360,17 +1360,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1448,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1470,17 +1470,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1514,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1580,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1624,17 +1624,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1668,17 +1668,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1800,17 +1800,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1822,17 +1822,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1888,17 +1888,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1910,17 +1910,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1932,17 +1932,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1954,17 +1954,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2042,17 +2042,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2064,17 +2064,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2108,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2130,17 +2130,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2157,12 +2157,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2218,17 +2218,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2240,17 +2240,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2262,17 +2262,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2350,17 +2350,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2372,17 +2372,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2394,17 +2394,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2438,17 +2438,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2504,17 +2504,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2526,17 +2526,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2548,17 +2548,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2570,17 +2570,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2592,17 +2592,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2619,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2658,17 +2658,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2680,17 +2680,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2702,17 +2702,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2724,17 +2724,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2746,17 +2746,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2812,17 +2812,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2834,17 +2834,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2856,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2878,17 +2878,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2988,17 +2988,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3010,17 +3010,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3032,17 +3032,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3120,17 +3120,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3142,17 +3142,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3164,17 +3164,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3186,17 +3186,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3208,17 +3208,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3274,17 +3274,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3318,17 +3318,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3340,17 +3340,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3428,17 +3428,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3450,17 +3450,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3472,17 +3472,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3582,17 +3582,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3604,17 +3604,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3648,17 +3648,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3670,17 +3670,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3758,17 +3758,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3780,17 +3780,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3824,17 +3824,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3890,17 +3890,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3934,17 +3934,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3956,17 +3956,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3978,17 +3978,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4044,17 +4044,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4110,17 +4110,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4198,17 +4198,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4220,17 +4220,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4264,17 +4264,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4374,17 +4374,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4396,17 +4396,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4418,17 +4418,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4440,17 +4440,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4467,12 +4467,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4506,17 +4506,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4528,17 +4528,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4550,17 +4550,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4572,17 +4572,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4594,17 +4594,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4660,17 +4660,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4704,17 +4704,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4726,17 +4726,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4748,17 +4748,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4814,17 +4814,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4836,17 +4836,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4858,17 +4858,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4880,17 +4880,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4968,17 +4968,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4990,17 +4990,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5012,17 +5012,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5034,17 +5034,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5144,17 +5144,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5166,17 +5166,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5188,17 +5188,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5210,17 +5210,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5298,17 +5298,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5320,17 +5320,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5364,17 +5364,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5391,12 +5391,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5430,17 +5430,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5474,17 +5474,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5496,17 +5496,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5518,17 +5518,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5606,17 +5606,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5628,17 +5628,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5650,17 +5650,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5738,17 +5738,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5760,17 +5760,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5804,17 +5804,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5826,17 +5826,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5853,12 +5853,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5914,17 +5914,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5936,17 +5936,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5958,17 +5958,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5980,17 +5980,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6046,17 +6046,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6068,17 +6068,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6112,17 +6112,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6222,17 +6222,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6244,17 +6244,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6266,17 +6266,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6288,17 +6288,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6354,17 +6354,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6376,17 +6376,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6398,17 +6398,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6420,17 +6420,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6442,17 +6442,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6508,17 +6508,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6530,17 +6530,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6552,17 +6552,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6574,17 +6574,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6596,17 +6596,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6623,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6662,17 +6662,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6684,17 +6684,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6706,17 +6706,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6728,17 +6728,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6750,17 +6750,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6816,17 +6816,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6838,17 +6838,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6860,17 +6860,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6882,17 +6882,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6904,17 +6904,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6970,17 +6970,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6992,17 +6992,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7014,17 +7014,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7036,17 +7036,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7058,17 +7058,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7124,17 +7124,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7146,17 +7146,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7168,17 +7168,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7190,17 +7190,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7212,17 +7212,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7239,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7278,17 +7278,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7300,17 +7300,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7322,17 +7322,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7432,17 +7432,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7454,17 +7454,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7476,17 +7476,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7498,17 +7498,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7520,17 +7520,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7586,17 +7586,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7608,17 +7608,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7652,17 +7652,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7674,17 +7674,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7701,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7740,17 +7740,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7762,17 +7762,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7784,17 +7784,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7806,17 +7806,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7828,17 +7828,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7916,17 +7916,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7938,17 +7938,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7960,17 +7960,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7982,17 +7982,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8009,12 +8009,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8048,17 +8048,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8070,17 +8070,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8092,17 +8092,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8114,17 +8114,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8136,17 +8136,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8202,17 +8202,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8224,17 +8224,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8246,17 +8246,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8268,17 +8268,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -8356,17 +8356,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8378,17 +8378,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8400,17 +8400,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8444,12 +8444,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">

--- a/notebooks/samples/m_a_2025.xlsx
+++ b/notebooks/samples/m_a_2025.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -964,12 +964,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1888,12 +1888,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,12 +2218,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2504,12 +2504,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3120,12 +3120,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3758,12 +3758,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,12 +3912,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4044,12 +4044,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4220,12 +4220,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4506,12 +4506,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4528,12 +4528,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4660,12 +4660,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4968,12 +4968,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5738,12 +5738,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5892,12 +5892,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6222,12 +6222,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6508,12 +6508,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6684,12 +6684,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6816,12 +6816,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6838,12 +6838,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6992,12 +6992,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7124,12 +7124,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7146,12 +7146,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7454,12 +7454,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7740,12 +7740,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7762,12 +7762,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7916,12 +7916,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8048,12 +8048,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8070,12 +8070,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8202,12 +8202,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8378,12 +8378,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
